--- a/sheets/TOADDhypertension.xlsx
+++ b/sheets/TOADDhypertension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>Recipe Id</t>
   </si>
@@ -101,7 +101,7 @@
   </si>
   <si>
     <t>Recipe# 22312
-Yesterday</t>
+23 Apr 23</t>
   </si>
   <si>
     <t>Garlic Vegetable Soup ( Healthy Heart) recipe - How to make Garlic Vegetable Soup ( Healthy Heart)</t>
@@ -140,6 +140,9 @@
 Sodium 8.8 mg</t>
   </si>
   <si>
+    <t>breakfast</t>
+  </si>
+  <si>
     <t>veg</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
 Fat 0 g
 Cholesterol 0 mg
 Sodium 0.1 mg</t>
+  </si>
+  <si>
+    <t>lunch</t>
   </si>
   <si>
     <t>Recipe# 3892
@@ -324,6 +330,9 @@
 Sodium 112.2 mg</t>
   </si>
   <si>
+    <t>dinner</t>
+  </si>
+  <si>
     <t>Recipe# 41569
 10 Dec 22</t>
   </si>
@@ -500,8 +509,435 @@
 Sodium 31.3 mg</t>
   </si>
   <si>
-    <t>Recipe# 22312
-23 Apr 23</t>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>Recipe# 22324
+09 Apr 21</t>
+  </si>
+  <si>
+    <t>Oats and Vegetable Broth recipe - How to make Oats and Vegetable Broth</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>For oats and vegetable broth
+To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
+Add all the vegetables and sauté on a medium flame for another 2 minutes.
+Add the oats and sauté on a medium flame for 1 more minute.
+Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the oats and vegetable broth immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Oats and Vegetable Broth
+1/2 cup quick cooking rolled oats
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped capsicum
+2 tbsp finely chopped cauliflower
+2 tbsp finely chopped carrot
+2 tbsp finely chopped cabbage
+2 tsp oil
+1/4 cup finely chopped onions
+2 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt and to taste
+2 tbsp finely chopped coriander (dhania)
+1/4 cup finely chopped parsley
+2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mooli-moong-dal-low-salt-recipe-22324r</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.4 g
+Carbohydrates 12.7 g
+Fiber 3.4 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 18.1 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 41121
+21 Jul 22</t>
+  </si>
+  <si>
+    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha recipe - How to make Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cauliflower and Bajra Roti
+1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+Other Ingredients For Cauliflower and Bajra Roti
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
+  </si>
+  <si>
+    <t>Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 5596
+03 May 22</t>
+  </si>
+  <si>
+    <t>Fresh Garlic Chutney recipe - How to make Fresh Garlic Chutney</t>
+  </si>
+  <si>
+    <t>For garlic chutney
+To make garlic chutney, combine all the ingredients along with ¼ cup of water in a mixer, mix well and blend to a smooth paste.
+Keep the garlic chutney refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Garlic Chutney
+3/4 cup roughly chopped garlic (lehsun)
+1 tbsp chilli powder
+1 tsp tamarind (imli) pulp
+2 tsp coriander (dhania) powder
+1/2 tbsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t>Energy 15 cal
+Protein 0.7 g
+Carbohydrates 2.7 g
+Fiber 0.6 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 22267
+27 Nov 20</t>
+  </si>
+  <si>
+    <t>Paneer Tamatar Paratha recipe - How to make Paneer Tamatar Paratha</t>
+  </si>
+  <si>
+    <t>For the chapatis
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Cover the dough with a lid and keep aside for 15 minutes.
+Knead again using ¼ tsp oil till smooth.
+How to proceed
+To make paneer tamatar paratha, divide the stuffing into 10 equal portions and keep aside.
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little wheat flour for rolling. Spread a portion of the stuffing on half of the circle and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 9 more parathas.
+Serve the paneer tamatar paratha immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Chapatis
+1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1 1/2 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+To Be Mixed Into A Stuffing
+1/2 cup crumbled low fat paneer (cottage cheese)
+3/4 cup deseeded and chopped tomatoes
+1/4 cup chopped yellow capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fresh-garlic-chutney-22267r</t>
+  </si>
+  <si>
+    <t>Energy 80 cal
+Protein 2.8 g
+Carbohydrates 15.1 g
+Fiber 2.7 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 32997
+24 Sep 22</t>
+  </si>
+  <si>
+    <t>Nutritious Thalipeeth recipe - How to make Nutritious Thalipeeth</t>
+  </si>
+  <si>
+    <t>For nutritious thalipeeth
+To nutritious thalipeeth, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it lightly using one eight tsp of oil.
+Wet your fingers, place a portion of the dough on a hot tava (griddle) and pat it with the help of fingers to make a 100 mm (4”) diameter circle.
+Cook on both the sides, using one eight tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more nutritious thalipeeth.
+Serve the nutritious thalipeeth immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Nutritious Thalipeeth
+3 tbsp bajra (black millet) flour
+3 tbsp jowar (white millet) flour
+3 tbsp whole wheat flour (gehun ka atta)
+3 tbsp besan (bengal gram flour)
+3/4 cup shredded cabbage
+1/4 cup chopped onions
+1/2 tsp finely chopped green chillies
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+2 tbsp chopped coriander (dhania)
+salt to taste
+1 1/2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
+  </si>
+  <si>
+    <t>Energy 88 cal
+Protein 3.2 g
+Carbohydrates 14.1 g
+Fiber 2.9 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 7457
+18 Apr 22</t>
+  </si>
+  <si>
+    <t>Jowar Bajra Garlic Roti recipe - How to make Jowar Bajra Garlic Roti</t>
+  </si>
+  <si>
+    <t>For jowar bajra garlic roti
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough warm water.
+Divide the dough into 6 equal portions.
+Roll out a portion into a circle of 150 mm. (6") diameter using a little jowar flour for rolling.
+Heat a non-stick tava (griddle), place the jowar bajra garlic roti over it and cook it for a few seconds.
+Turn over the roti and cook the other side for a few more seconds.
+Lift the jowar bajra garlic roti with a pair of flat tongs and roast over an open flame till brown spots appear on both sides.
+Repeat steps 3 to 6 to make 5 more jowar bajra garlic roti.
+Serve the jowar bajra garlic roti immediately smeared with ghee.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Jowar Bajra Garlic Roti
+1/2 cup jowar (white millet) flour
+1/2 cup bajra (black millet) flour
+1 tsp garlic (lehsun) paste
+1/2 tsp green chilli paste
+1/2 tbsp sesame seeds (til)
+salt to taste
+jowar (white millet) flour for rolling
+ghee for smearing</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t>Energy 86 cal
+Protein 2 g
+Carbohydrates 11.7 g
+Fiber 1.9 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 1.6 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 38880
+23 Jan 21</t>
+  </si>
+  <si>
+    <t>Carrot and Bell Pepper Soup recipe - How to make Carrot and Bell Pepper Soup</t>
+  </si>
+  <si>
+    <t>Combine the carrot, red, yellow and green capsicum, tomatoes and 1 cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and bend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the mixed herbs, chilli flakes, salt, pepper and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/2 cup roughly chopped carrot
+1/2 cup roughly chopped red capsicum
+1/2 cup roughly chopped yellow capsicum
+1/2 cup roughly chopped green capsicum
+1/2 cup roughly chopped tomatoes
+1/2 tsp dried mixed herbs
+1/2 tsp dry red chilli flakes (paprika)
+1/8 tsp salt
+1/4 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-bajra-garlic-roti-38880r</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 1.9 g
+Carbohydrates 9.6 g
+Fiber 4.4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 215.4 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 40446
+13 Apr 23</t>
+  </si>
+  <si>
+    <t>Vegetable Bulgur Wheat Khichdi, Low Salt Recipe recipe - How to make Vegetable Bulgur Wheat Khichdi, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Put the bulgur wheat in a broad non-stick pan and dry roast on a medium flame for 2 to 3 minutes. Keep aside.
+Heat the oil in a pressure cooker, add the cumin seeds and asafoetida and saute on a medium flame for 30 seconds.
+Add the ginger, garlic and onions and saute on a medium flame for 1 minute.
+Add the tomatoes, cauliflower and bottle gourd, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Add the bulgur wheat, chilly powder, turmeric powder, salt and 2 cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Add 5 tbsp of water, mix well and cook on a medium flame for 1 minute while mashing the khichdi lightly.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/2 cup broken wheat (dalia)
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped cauliflower
+1/4 cup finely chopped bottle gourd (doodhi / lauki)
+1/2 tsp chilli powder
+1/8 tsp turmeric powder (haldi)
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-bell-pepper-soup-40446r</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 3.9 g
+Carbohydrates 32.2 g
+Fiber 2 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 208.9 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 5303
+17 Apr 23</t>
+  </si>
+  <si>
+    <t>Minty Couscous recipe - How to make Minty Couscous</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>For minty couscous
+To make minty couscous, clean and wash the couscous thoroughly.
+Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.
+Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.
+Refrigerate for at least half an hour.
+Serve the minty couscous chilled.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Minty Couscous
+2 tbsp chopped mint leaves (phudina)
+1/2 cup couscous
+1 cup low fat milk , 99.7 % fat-free
+1/2 cup chopped tomatoes
+1/2 cup chopped spring onions
+1/4 cup chopped coriander (dhania)
+2 tsp olive oil
+2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-sheera-5303r</t>
+  </si>
+  <si>
+    <t>Energy 134 cal
+Protein 5.1 g
+Carbohydrates 21.8 g
+Fiber 1.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 31.1 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 7445
+27 Mar 21</t>
+  </si>
+  <si>
+    <t>Garlic and Tendli Pickle recipe - How to make Garlic and Tendli Pickle</t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick pan, add the asafoetida, green chillies, garlic, and tendli and sauté on a medium flame for 1 to 2 minutes.
+Add the prepared masala and mix well and sauté on a medium flame for 1 minutes.
+Keep aside to marinate for atleast 2 to 3 hours.
+Store in an air-tight container for 7 days in a refrigerator.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/2 cup finely chopped garlic (lehsun)
+1/2 cup tendli rings
+2 tsp finely chopped green chillies
+a pinch of asafoetida (hing)
+2 tsp oil
+To Be Mixed Into A Masala
+2 tsp split mustard seeds (rai na kuria)
+2 tsp split fenugreek seeds (methi na kuria)
+1 tsp chilli powder
+salt</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-couscous-7445r</t>
+  </si>
+  <si>
+    <t>Energy 7 cal
+Protein 0.1 g
+Carbohydrates 0.2 g
+Fiber 0.1 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 1.7 mg</t>
   </si>
 </sst>
 </file>
@@ -546,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +1054,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -647,60 +1083,63 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -708,57 +1147,60 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -766,127 +1208,464 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="J22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
